--- a/biology/Zoologie/Lars_Christensen/Lars_Christensen.xlsx
+++ b/biology/Zoologie/Lars_Christensen/Lars_Christensen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lars Christensen, né le 6 avril 1884 à Sandefjord (Norvège) et mort le 10 décembre 1965 à New York, est un consul, un armateur et un homme d’affaires norvégien. En finançant neuf expéditions successives dans l'Antarctique (1927–1937), il ouvrit la voie à la revendication de la Terre de la Reine-Maud par la Norvège.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a affrété des navires destinés à la chasse à la baleine lors de campagnes dans les eaux de l’océan Austral, ce qui lui a permis d’explorer les régions antarctiques[1]. Il découvre ainsi en 1930 la presqu'île Bjerkö et, en 1936-1937, parvient à photographier la banquise de l'Ouest et la baie d'Enderby et découvre la Terre du Prince-Harald[2]. 
-Entre autres lieux en Antarctique, la côte de Lars-Christensen et le pic Lars Christensen portent son nom[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a affrété des navires destinés à la chasse à la baleine lors de campagnes dans les eaux de l’océan Austral, ce qui lui a permis d’explorer les régions antarctiques. Il découvre ainsi en 1930 la presqu'île Bjerkö et, en 1936-1937, parvient à photographier la banquise de l'Ouest et la baie d'Enderby et découvre la Terre du Prince-Harald. 
+Entre autres lieux en Antarctique, la côte de Lars-Christensen et le pic Lars Christensen portent son nom.
 </t>
         </is>
       </c>
